--- a/flows/AMZA_fund_flow_data.xlsx
+++ b/flows/AMZA_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2370"/>
+  <dimension ref="A1:B2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24135,6 +24135,166 @@
         <v>0.966125</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2371" t="n">
+        <v>3.8687</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2386" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
